--- a/Теория вероятности/Равномерное распределение 19-ИВТ-3 Игнаков К.М..xlsx
+++ b/Теория вероятности/Равномерное распределение 19-ИВТ-3 Игнаков К.М..xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/ВУЗ/Теория вероятности/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/ВУЗ/Программирование/institute/Теория вероятности/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E79B87-B356-7343-867D-EB667527F78D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AC5190-1588-5A41-A2EA-5D09361260F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="811" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Файл скачан с сайта excel2.ru</t>
   </si>
@@ -88,6 +88,27 @@
   <si>
     <t>p(X=х)</t>
   </si>
+  <si>
+    <t xml:space="preserve">Mx = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dx = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ср. квадр. Откл. = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мода = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Медиана = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Эксцесс = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ассиметрия = </t>
+  </si>
 </sst>
 </file>
 
@@ -96,7 +117,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -250,7 +271,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -261,10 +282,8 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -272,10 +291,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Гиперссылка 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -395,90 +415,624 @@
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$10:$A$21</c:f>
+              <c:f>Лист1!$A$10:$A$110</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>-13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-11.363636363636363</c:v>
+                  <c:v>-12.82</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.7272727272727266</c:v>
+                  <c:v>-12.64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-8.0909090909090899</c:v>
+                  <c:v>-12.46</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-6.4545454545454533</c:v>
+                  <c:v>-12.280000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-4.8181818181818166</c:v>
+                  <c:v>-12.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3.1818181818181799</c:v>
+                  <c:v>-11.920000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.5454545454545434</c:v>
+                  <c:v>-11.740000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0909090909093049E-2</c:v>
+                  <c:v>-11.560000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7272727272727295</c:v>
+                  <c:v>-11.380000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.363636363636366</c:v>
+                  <c:v>-11.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.0000000000000027</c:v>
+                  <c:v>-11.020000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-10.840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-10.660000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-10.480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-10.300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-10.120000000000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-9.9400000000000048</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-9.7600000000000051</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-9.5800000000000054</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-9.4000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-9.220000000000006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-9.0400000000000063</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-8.8600000000000065</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-8.6800000000000068</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-8.5000000000000071</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-8.3200000000000074</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-8.1400000000000077</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-7.960000000000008</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-7.7800000000000082</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-7.6000000000000085</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-7.4200000000000088</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-7.2400000000000091</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-7.0600000000000094</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-6.8800000000000097</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-6.7000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-6.5200000000000102</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-6.3400000000000105</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-6.1600000000000108</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-5.9800000000000111</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-5.8000000000000114</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-5.6200000000000117</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-5.4400000000000119</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-5.2600000000000122</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-5.0800000000000125</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-4.9000000000000128</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-4.7200000000000131</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-4.5400000000000134</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-4.3600000000000136</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-4.1800000000000139</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-4.0000000000000142</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-3.8200000000000141</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-3.6400000000000139</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-3.4600000000000137</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-3.2800000000000136</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-3.1000000000000134</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-2.9200000000000133</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-2.7400000000000131</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-2.5600000000000129</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-2.3800000000000128</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-2.2000000000000126</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-2.0200000000000125</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-1.8400000000000125</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-1.6600000000000126</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-1.4800000000000126</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-1.3000000000000127</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-1.1200000000000128</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.94000000000001283</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.76000000000001289</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.58000000000001295</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.40000000000001296</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.22000000000001296</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-4.000000000001297E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.13999999999998702</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.31999999999998702</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.49999999999998701</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.67999999999998706</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.859999999999987</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.0399999999999869</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.2199999999999869</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.3999999999999868</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.5799999999999867</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.7599999999999867</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.9399999999999866</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.1199999999999868</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.2999999999999869</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.4799999999999871</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.6599999999999873</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.8399999999999874</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.0199999999999876</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.1999999999999877</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.3799999999999879</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.5599999999999881</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.7399999999999882</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.9199999999999884</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.0999999999999881</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.2799999999999878</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.4599999999999875</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.6399999999999872</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.819999999999987</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4.9999999999999867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$B$10:$B$21</c:f>
+              <c:f>Лист1!$B$10:$B$110</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.0909090909090925E-2</c:v>
+                  <c:v>9.9999999999999829E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18181818181818185</c:v>
+                  <c:v>1.9999999999999966E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27272727272727276</c:v>
+                  <c:v>2.999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3636363636363637</c:v>
+                  <c:v>3.9999999999999931E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.45454545454545459</c:v>
+                  <c:v>4.999999999999992E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.54545454545454553</c:v>
+                  <c:v>5.9999999999999901E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.63636363636363646</c:v>
+                  <c:v>6.9999999999999882E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.7272727272727274</c:v>
+                  <c:v>7.9999999999999863E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.81818181818181834</c:v>
+                  <c:v>8.9999999999999858E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.90909090909090917</c:v>
+                  <c:v>9.9999999999999839E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0000000000000002</c:v>
+                  <c:v>0.10999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12999999999999978</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13999999999999976</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.14999999999999974</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.15999999999999973</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.16999999999999973</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.17999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.1899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.19999999999999968</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.20999999999999966</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.21999999999999964</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.22999999999999962</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.2399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.24999999999999958</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.25999999999999956</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.26999999999999957</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.27999999999999953</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999954</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.29999999999999949</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.3099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.31999999999999945</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.32999999999999946</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.33999999999999947</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.34999999999999942</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.35999999999999943</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.36999999999999938</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.37999999999999939</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.38999999999999935</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.39999999999999936</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.40999999999999931</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.41999999999999932</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.42999999999999927</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.43999999999999928</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.44999999999999929</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.45999999999999924</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.46999999999999925</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.47999999999999921</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.48999999999999921</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.49999999999999917</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.50999999999999912</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.51999999999999913</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.52999999999999925</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.53999999999999926</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.54999999999999916</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.55999999999999928</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999929</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999929</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.58999999999999919</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.5999999999999992</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.60999999999999932</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.61999999999999933</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.62999999999999923</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.63999999999999924</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.64999999999999925</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.65999999999999925</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.66999999999999926</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.67999999999999927</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.68999999999999928</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.69999999999999929</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.70999999999999919</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.7199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.72999999999999921</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.73999999999999932</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.74999999999999922</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.75999999999999923</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.76999999999999924</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.77999999999999925</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.78999999999999915</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.79999999999999916</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.80999999999999928</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.81999999999999929</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.82999999999999918</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.83999999999999919</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.8499999999999992</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.85999999999999921</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.86999999999999922</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.87999999999999923</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.88999999999999935</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.89999999999999936</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.90999999999999925</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.91999999999999926</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.92999999999999927</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.93999999999999928</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.94999999999999929</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.95999999999999919</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.9699999999999992</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.97999999999999921</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.98999999999999921</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.99999999999999911</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -495,7 +1049,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$A$23</c:f>
+              <c:f>Лист1!$K$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -634,43 +1188,106 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$25:$A$32</c:f>
+              <c:f>Лист1!$K$11:$K$39</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>-18.399999999999999</c:v>
+                  <c:v>-18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-18.399999999999999</c:v>
+                  <c:v>-17</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>-13</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>-13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0000000000000027</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.0000000000000027</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.399999999999999</c:v>
+                  <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.399999999999999</c:v>
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$B$25:$B$32</c:f>
+              <c:f>Лист1!$L$11:$L$39</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -681,18 +1298,81 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>5.5555555555555552E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>5.5555555555555552E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
+                  <c:v>5.5555555555555552E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.5555555555555552E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.5555555555555552E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5555555555555552E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5555555555555552E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.5555555555555552E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.5555555555555552E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.5555555555555552E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.5555555555555552E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.5555555555555552E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.5555555555555552E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.5555555555555552E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.5555555555555552E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.5555555555555552E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.5555555555555552E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.5555555555555552E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.5555555555555552E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -798,7 +1478,7 @@
       <xdr:rowOff>174624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>640079</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1150,10 +1830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F124"/>
+  <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1162,575 +1842,1383 @@
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.83203125" customWidth="1"/>
     <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="2.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" ht="14">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="14">
+      <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="6" customFormat="1" ht="14">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="14">
+      <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="15">
         <v>-13</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" ht="14">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="14">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="15">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="6" customFormat="1" ht="30">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="30">
+      <c r="A4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="10">
         <f>1/(b-a)</f>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="6" customFormat="1" ht="14">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:6" s="6" customFormat="1" ht="14">
-      <c r="A6" s="10" t="s">
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="14">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="14">
+      <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" s="6" customFormat="1" ht="14">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" s="6" customFormat="1" ht="14">
-      <c r="A8" s="7" t="s">
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1" ht="14">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="14">
+      <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="11">
-        <f>(b-a)/11</f>
-        <v>1.6363636363636365</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="6" t="str">
+      <c r="B8" s="9">
+        <f>(b-a)/100</f>
+        <v>0.18</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="5" t="str">
         <f>"Равномерное непрерывное распределение U("&amp;a&amp;"; "&amp;b&amp;")"</f>
         <v>Равномерное непрерывное распределение U(-13; 5)</v>
       </c>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" s="6" customFormat="1" ht="14">
-      <c r="A9" s="9" t="s">
+    </row>
+    <row r="9" spans="1:12" s="5" customFormat="1" ht="14">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" s="6" customFormat="1" ht="14">
-      <c r="A10" s="16">
+      <c r="K9" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="5" customFormat="1" ht="14">
+      <c r="A10" s="14">
         <f>a</f>
         <v>-13</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="9">
         <f>(Лист1!$A10-a)*$B$4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" s="6" customFormat="1" ht="14">
-      <c r="A11" s="14">
-        <f t="shared" ref="A11:A20" si="0">IF(A10+$B$8&gt;=b,NA(),A10+$B$8)</f>
-        <v>-11.363636363636363</v>
-      </c>
-      <c r="B11" s="11">
-        <f>(Лист1!$A11-a)*$B$4</f>
-        <v>9.0909090909090925E-2</v>
-      </c>
-      <c r="C11" s="10"/>
-    </row>
-    <row r="12" spans="1:6" s="6" customFormat="1" ht="14">
-      <c r="A12" s="14">
-        <f t="shared" si="0"/>
-        <v>-9.7272727272727266</v>
-      </c>
-      <c r="B12" s="11">
-        <f>(Лист1!$A12-a)*$B$4</f>
-        <v>0.18181818181818185</v>
-      </c>
-      <c r="C12" s="10"/>
-    </row>
-    <row r="13" spans="1:6" s="6" customFormat="1" ht="14">
-      <c r="A13" s="14">
-        <f t="shared" si="0"/>
-        <v>-8.0909090909090899</v>
-      </c>
-      <c r="B13" s="11">
-        <f>(Лист1!$A13-a)*$B$4</f>
-        <v>0.27272727272727276</v>
-      </c>
-      <c r="C13" s="10"/>
-    </row>
-    <row r="14" spans="1:6" s="6" customFormat="1" ht="14">
-      <c r="A14" s="14">
-        <f t="shared" si="0"/>
-        <v>-6.4545454545454533</v>
-      </c>
-      <c r="B14" s="11">
-        <f>(Лист1!$A14-a)*$B$4</f>
-        <v>0.3636363636363637</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="6" customFormat="1" ht="14">
-      <c r="A15" s="14">
-        <f t="shared" si="0"/>
-        <v>-4.8181818181818166</v>
-      </c>
-      <c r="B15" s="11">
-        <f>(Лист1!$A15-a)*$B$4</f>
-        <v>0.45454545454545459</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="6" customFormat="1" ht="14">
-      <c r="A16" s="14">
-        <f t="shared" si="0"/>
-        <v>-3.1818181818181799</v>
-      </c>
-      <c r="B16" s="11">
-        <f>(Лист1!$A16-a)*$B$4</f>
-        <v>0.54545454545454553</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="6" customFormat="1" ht="14">
-      <c r="A17" s="14">
-        <f t="shared" si="0"/>
-        <v>-1.5454545454545434</v>
-      </c>
-      <c r="B17" s="11">
-        <f>(Лист1!$A17-a)*$B$4</f>
-        <v>0.63636363636363646</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="6" customFormat="1" ht="14">
-      <c r="A18" s="14">
-        <f t="shared" si="0"/>
-        <v>9.0909090909093049E-2</v>
-      </c>
-      <c r="B18" s="11">
-        <f>(Лист1!$A18-a)*$B$4</f>
-        <v>0.7272727272727274</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" s="6" customFormat="1" ht="14">
-      <c r="A19" s="14">
-        <f t="shared" si="0"/>
-        <v>1.7272727272727295</v>
-      </c>
-      <c r="B19" s="11">
-        <f>(Лист1!$A19-a)*$B$4</f>
-        <v>0.81818181818181834</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" s="6" customFormat="1" ht="14">
-      <c r="A20" s="14">
-        <f t="shared" si="0"/>
-        <v>3.363636363636366</v>
-      </c>
-      <c r="B20" s="11">
-        <f>(Лист1!$A20-a)*$B$4</f>
-        <v>0.90909090909090917</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" s="6" customFormat="1" ht="14">
-      <c r="A21" s="14">
-        <f>IF(A20+$B$8&gt;b,NA(),A20+$B$8)</f>
-        <v>5.0000000000000027</v>
-      </c>
-      <c r="B21" s="11">
-        <f>(Лист1!$A21-a)*$B$4</f>
-        <v>1.0000000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" s="6" customFormat="1" ht="14"/>
-    <row r="23" spans="1:2" s="6" customFormat="1" ht="14">
-      <c r="A23" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" s="6" customFormat="1" ht="14">
-      <c r="A24" s="7" t="str">
+      <c r="K10" s="6" t="str">
         <f>A9</f>
         <v>х</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="L10" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="6" customFormat="1" ht="14">
-      <c r="A25" s="15">
-        <f>a-(b-a)*0.3</f>
-        <v>-18.399999999999999</v>
-      </c>
-      <c r="B25" s="11">
+    <row r="11" spans="1:12" s="5" customFormat="1" ht="14">
+      <c r="A11" s="12">
+        <f t="shared" ref="A11:A20" si="0">IF(A10+$B$8&gt;=b,NA(),A10+$B$8)</f>
+        <v>-12.82</v>
+      </c>
+      <c r="B11" s="9">
+        <f>(Лист1!$A11-a)*$B$4</f>
+        <v>9.9999999999999829E-3</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="K11" s="13">
+        <f>a-5</f>
+        <v>-18</v>
+      </c>
+      <c r="L11" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="6" customFormat="1" ht="14">
-      <c r="A26" s="15">
-        <f>A25</f>
-        <v>-18.399999999999999</v>
-      </c>
-      <c r="B26" s="11">
+    <row r="12" spans="1:12" s="5" customFormat="1" ht="14">
+      <c r="A12" s="12">
+        <f t="shared" si="0"/>
+        <v>-12.64</v>
+      </c>
+      <c r="B12" s="9">
+        <f>(Лист1!$A12-a)*$B$4</f>
+        <v>1.9999999999999966E-2</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="K12" s="13">
+        <f>K11+1</f>
+        <v>-17</v>
+      </c>
+      <c r="L12" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="6" customFormat="1" ht="14">
-      <c r="A27" s="15">
-        <f>A10</f>
+    <row r="13" spans="1:12" s="5" customFormat="1" ht="14">
+      <c r="A13" s="12">
+        <f t="shared" si="0"/>
+        <v>-12.46</v>
+      </c>
+      <c r="B13" s="9">
+        <f>(Лист1!$A13-a)*$B$4</f>
+        <v>2.999999999999995E-2</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="K13" s="13">
+        <f t="shared" ref="K13:K39" si="1">K12+1</f>
+        <v>-16</v>
+      </c>
+      <c r="L13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="5" customFormat="1" ht="14">
+      <c r="A14" s="12">
+        <f t="shared" si="0"/>
+        <v>-12.280000000000001</v>
+      </c>
+      <c r="B14" s="9">
+        <f>(Лист1!$A14-a)*$B$4</f>
+        <v>3.9999999999999931E-2</v>
+      </c>
+      <c r="K14" s="13">
+        <f t="shared" si="1"/>
+        <v>-15</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="5" customFormat="1" ht="14">
+      <c r="A15" s="12">
+        <f t="shared" si="0"/>
+        <v>-12.100000000000001</v>
+      </c>
+      <c r="B15" s="9">
+        <f>(Лист1!$A15-a)*$B$4</f>
+        <v>4.999999999999992E-2</v>
+      </c>
+      <c r="K15" s="13">
+        <f t="shared" si="1"/>
+        <v>-14</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="5" customFormat="1" ht="14">
+      <c r="A16" s="12">
+        <f t="shared" si="0"/>
+        <v>-11.920000000000002</v>
+      </c>
+      <c r="B16" s="9">
+        <f>(Лист1!$A16-a)*$B$4</f>
+        <v>5.9999999999999901E-2</v>
+      </c>
+      <c r="K16" s="13">
+        <f t="shared" si="1"/>
         <v>-13</v>
       </c>
-      <c r="B27" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" s="6" customFormat="1" ht="14">
-      <c r="A28" s="15">
-        <f>A10</f>
-        <v>-13</v>
-      </c>
-      <c r="B28" s="11">
+      <c r="L16" s="9">
         <f>$B$4</f>
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="6" customFormat="1" ht="14">
-      <c r="A29" s="15">
-        <f>A21</f>
-        <v>5.0000000000000027</v>
-      </c>
-      <c r="B29" s="11">
-        <f t="shared" ref="B29" si="1">$B$4</f>
+    <row r="17" spans="1:12" s="5" customFormat="1" ht="14">
+      <c r="A17" s="12">
+        <f t="shared" si="0"/>
+        <v>-11.740000000000002</v>
+      </c>
+      <c r="B17" s="9">
+        <f>(Лист1!$A17-a)*$B$4</f>
+        <v>6.9999999999999882E-2</v>
+      </c>
+      <c r="K17" s="13">
+        <f t="shared" si="1"/>
+        <v>-12</v>
+      </c>
+      <c r="L17" s="9">
+        <f t="shared" ref="L17:L34" si="2">$B$4</f>
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="6" customFormat="1" ht="14">
-      <c r="A30" s="15">
-        <f>A29</f>
-        <v>5.0000000000000027</v>
-      </c>
-      <c r="B30" s="11">
+    <row r="18" spans="1:12" s="5" customFormat="1" ht="14">
+      <c r="A18" s="12">
+        <f t="shared" si="0"/>
+        <v>-11.560000000000002</v>
+      </c>
+      <c r="B18" s="9">
+        <f>(Лист1!$A18-a)*$B$4</f>
+        <v>7.9999999999999863E-2</v>
+      </c>
+      <c r="K18" s="13">
+        <f t="shared" si="1"/>
+        <v>-11</v>
+      </c>
+      <c r="L18" s="9">
+        <f t="shared" si="2"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="5" customFormat="1" ht="14">
+      <c r="A19" s="12">
+        <f t="shared" si="0"/>
+        <v>-11.380000000000003</v>
+      </c>
+      <c r="B19" s="9">
+        <f>(Лист1!$A19-a)*$B$4</f>
+        <v>8.9999999999999858E-2</v>
+      </c>
+      <c r="K19" s="13">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+      <c r="L19" s="9">
+        <f t="shared" si="2"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="5" customFormat="1" ht="14">
+      <c r="A20" s="12">
+        <f t="shared" si="0"/>
+        <v>-11.200000000000003</v>
+      </c>
+      <c r="B20" s="9">
+        <f>(Лист1!$A20-a)*$B$4</f>
+        <v>9.9999999999999839E-2</v>
+      </c>
+      <c r="K20" s="13">
+        <f t="shared" si="1"/>
+        <v>-9</v>
+      </c>
+      <c r="L20" s="9">
+        <f t="shared" si="2"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="5" customFormat="1" ht="14">
+      <c r="A21" s="12">
+        <f>IF(A20+$B$8&gt;b,NA(),A20+$B$8)</f>
+        <v>-11.020000000000003</v>
+      </c>
+      <c r="B21" s="9">
+        <f>(Лист1!$A21-a)*$B$4</f>
+        <v>0.10999999999999982</v>
+      </c>
+      <c r="K21" s="13">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+      <c r="L21" s="9">
+        <f t="shared" si="2"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="5" customFormat="1" ht="14">
+      <c r="A22" s="12">
+        <f>IF(A21+$B$8&gt;b,NA(),A21+$B$8)</f>
+        <v>-10.840000000000003</v>
+      </c>
+      <c r="B22" s="9">
+        <f>(Лист1!$A22-a)*$B$4</f>
+        <v>0.1199999999999998</v>
+      </c>
+      <c r="K22" s="13">
+        <f t="shared" si="1"/>
+        <v>-7</v>
+      </c>
+      <c r="L22" s="9">
+        <f t="shared" si="2"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="5" customFormat="1" ht="14">
+      <c r="A23" s="12">
+        <f>IF(A22+$B$8&gt;b,NA(),A22+$B$8)</f>
+        <v>-10.660000000000004</v>
+      </c>
+      <c r="B23" s="9">
+        <f>(Лист1!$A23-a)*$B$4</f>
+        <v>0.12999999999999978</v>
+      </c>
+      <c r="J23" s="16"/>
+      <c r="K23" s="13">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="L23" s="9">
+        <f t="shared" si="2"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="5" customFormat="1" ht="14">
+      <c r="A24" s="12">
+        <f>IF(A23+$B$8&gt;b,NA(),A23+$B$8)</f>
+        <v>-10.480000000000004</v>
+      </c>
+      <c r="B24" s="9">
+        <f>(Лист1!$A24-a)*$B$4</f>
+        <v>0.13999999999999976</v>
+      </c>
+      <c r="J24" s="16"/>
+      <c r="K24" s="13">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="L24" s="9">
+        <f t="shared" si="2"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="5" customFormat="1" ht="14">
+      <c r="A25" s="12">
+        <f>IF(A24+$B$8&gt;b,NA(),A24+$B$8)</f>
+        <v>-10.300000000000004</v>
+      </c>
+      <c r="B25" s="9">
+        <f>(Лист1!$A25-a)*$B$4</f>
+        <v>0.14999999999999974</v>
+      </c>
+      <c r="J25" s="16"/>
+      <c r="K25" s="13">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="L25" s="9">
+        <f t="shared" si="2"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="5" customFormat="1" ht="14">
+      <c r="A26" s="12">
+        <f>IF(A25+$B$8&gt;b,NA(),A25+$B$8)</f>
+        <v>-10.120000000000005</v>
+      </c>
+      <c r="B26" s="9">
+        <f>(Лист1!$A26-a)*$B$4</f>
+        <v>0.15999999999999973</v>
+      </c>
+      <c r="J26" s="16"/>
+      <c r="K26" s="13">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="L26" s="9">
+        <f t="shared" si="2"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="5" customFormat="1" ht="14">
+      <c r="A27" s="12">
+        <f>IF(A26+$B$8&gt;b,NA(),A26+$B$8)</f>
+        <v>-9.9400000000000048</v>
+      </c>
+      <c r="B27" s="9">
+        <f>(Лист1!$A27-a)*$B$4</f>
+        <v>0.16999999999999973</v>
+      </c>
+      <c r="J27" s="16"/>
+      <c r="K27" s="13">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="L27" s="9">
+        <f t="shared" si="2"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="5" customFormat="1" ht="14">
+      <c r="A28" s="12">
+        <f>IF(A27+$B$8&gt;b,NA(),A27+$B$8)</f>
+        <v>-9.7600000000000051</v>
+      </c>
+      <c r="B28" s="9">
+        <f>(Лист1!$A28-a)*$B$4</f>
+        <v>0.17999999999999972</v>
+      </c>
+      <c r="J28" s="16"/>
+      <c r="K28" s="13">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="L28" s="9">
+        <f t="shared" si="2"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="5" customFormat="1" ht="14">
+      <c r="A29" s="12">
+        <f>IF(A28+$B$8&gt;b,NA(),A28+$B$8)</f>
+        <v>-9.5800000000000054</v>
+      </c>
+      <c r="B29" s="9">
+        <f>(Лист1!$A29-a)*$B$4</f>
+        <v>0.1899999999999997</v>
+      </c>
+      <c r="K29" s="13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" s="6" customFormat="1" ht="14">
-      <c r="A31" s="15">
-        <f>b+(b-a)*0.3</f>
-        <v>10.399999999999999</v>
-      </c>
-      <c r="B31" s="11">
+      <c r="L29" s="9">
+        <f t="shared" si="2"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="5" customFormat="1" ht="14">
+      <c r="A30" s="12">
+        <f>IF(A29+$B$8&gt;b,NA(),A29+$B$8)</f>
+        <v>-9.4000000000000057</v>
+      </c>
+      <c r="B30" s="9">
+        <f>(Лист1!$A30-a)*$B$4</f>
+        <v>0.19999999999999968</v>
+      </c>
+      <c r="K30" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L30" s="9">
+        <f t="shared" si="2"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="5" customFormat="1" ht="14">
+      <c r="A31" s="12">
+        <f>IF(A30+$B$8&gt;b,NA(),A30+$B$8)</f>
+        <v>-9.220000000000006</v>
+      </c>
+      <c r="B31" s="9">
+        <f>(Лист1!$A31-a)*$B$4</f>
+        <v>0.20999999999999966</v>
+      </c>
+      <c r="K31" s="13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L31" s="9">
+        <f t="shared" si="2"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="5" customFormat="1">
+      <c r="A32" s="12">
+        <f>IF(A31+$B$8&gt;b,NA(),A31+$B$8)</f>
+        <v>-9.0400000000000063</v>
+      </c>
+      <c r="B32" s="9">
+        <f>(Лист1!$A32-a)*$B$4</f>
+        <v>0.21999999999999964</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32">
+        <v>-4</v>
+      </c>
+      <c r="K32" s="13">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L32" s="9">
+        <f t="shared" si="2"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="5" customFormat="1">
+      <c r="A33" s="12">
+        <f>IF(A32+$B$8&gt;b,NA(),A32+$B$8)</f>
+        <v>-8.8600000000000065</v>
+      </c>
+      <c r="B33" s="9">
+        <f>(Лист1!$A33-a)*$B$4</f>
+        <v>0.22999999999999962</v>
+      </c>
+      <c r="D33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33">
+        <v>27</v>
+      </c>
+      <c r="K33" s="13">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L33" s="9">
+        <f t="shared" si="2"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="5" customFormat="1">
+      <c r="A34" s="12">
+        <f>IF(A33+$B$8&gt;b,NA(),A33+$B$8)</f>
+        <v>-8.6800000000000068</v>
+      </c>
+      <c r="B34" s="9">
+        <f>(Лист1!$A34-a)*$B$4</f>
+        <v>0.2399999999999996</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34">
+        <v>5.1959999999999997</v>
+      </c>
+      <c r="K34" s="13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L34" s="9">
+        <f t="shared" si="2"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="5" customFormat="1">
+      <c r="A35" s="12">
+        <f>IF(A34+$B$8&gt;b,NA(),A34+$B$8)</f>
+        <v>-8.5000000000000071</v>
+      </c>
+      <c r="B35" s="9">
+        <f>(Лист1!$A35-a)*$B$4</f>
+        <v>0.24999999999999958</v>
+      </c>
+      <c r="D35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35">
+        <v>5.5E-2</v>
+      </c>
+      <c r="K35" s="13">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L35" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="6" customFormat="1" ht="14">
-      <c r="A32" s="15">
-        <f t="shared" ref="A32" si="2">A31</f>
-        <v>10.399999999999999</v>
-      </c>
-      <c r="B32" s="11">
+    <row r="36" spans="1:12" s="5" customFormat="1">
+      <c r="A36" s="12">
+        <f>IF(A35+$B$8&gt;b,NA(),A35+$B$8)</f>
+        <v>-8.3200000000000074</v>
+      </c>
+      <c r="B36" s="9">
+        <f>(Лист1!$A36-a)*$B$4</f>
+        <v>0.25999999999999956</v>
+      </c>
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36">
+        <v>-4</v>
+      </c>
+      <c r="K36" s="13">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="L36" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="6" customFormat="1" ht="14"/>
-    <row r="34" spans="1:6" s="6" customFormat="1" ht="14"/>
-    <row r="35" spans="1:6" s="6" customFormat="1" ht="14"/>
-    <row r="36" spans="1:6" s="6" customFormat="1" ht="14"/>
-    <row r="37" spans="1:6" s="6" customFormat="1" ht="14"/>
-    <row r="38" spans="1:6" s="6" customFormat="1" ht="14"/>
-    <row r="39" spans="1:6" s="6" customFormat="1" ht="14">
-      <c r="F39" s="8"/>
-    </row>
-    <row r="40" spans="1:6" s="6" customFormat="1" ht="14">
-      <c r="F40" s="8"/>
-    </row>
-    <row r="41" spans="1:6" s="6" customFormat="1" ht="14">
-      <c r="F41" s="8"/>
-    </row>
-    <row r="42" spans="1:6" s="6" customFormat="1" ht="14">
-      <c r="F42" s="8"/>
-    </row>
-    <row r="43" spans="1:6" s="6" customFormat="1" ht="14">
-      <c r="F43" s="8"/>
-    </row>
-    <row r="44" spans="1:6" s="6" customFormat="1" ht="14">
-      <c r="F44" s="8"/>
-    </row>
-    <row r="45" spans="1:6" s="6" customFormat="1" ht="14">
-      <c r="F45" s="8"/>
-    </row>
-    <row r="46" spans="1:6" s="6" customFormat="1" ht="14">
-      <c r="F46" s="8"/>
-    </row>
-    <row r="47" spans="1:6" s="6" customFormat="1" ht="14">
-      <c r="F47" s="8"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="F48" s="5"/>
-    </row>
-    <row r="49" spans="3:6">
-      <c r="C49" s="6"/>
-      <c r="F49" s="5"/>
-    </row>
-    <row r="50" spans="3:6">
-      <c r="F50" s="5"/>
-    </row>
-    <row r="51" spans="3:6">
-      <c r="F51" s="5"/>
-    </row>
-    <row r="52" spans="3:6">
-      <c r="F52" s="5"/>
-    </row>
-    <row r="53" spans="3:6">
-      <c r="F53" s="5"/>
-    </row>
-    <row r="54" spans="3:6">
-      <c r="F54" s="5"/>
-    </row>
-    <row r="55" spans="3:6">
-      <c r="F55" s="5"/>
-    </row>
-    <row r="56" spans="3:6">
-      <c r="F56" s="5"/>
-    </row>
-    <row r="57" spans="3:6">
-      <c r="F57" s="5"/>
-    </row>
-    <row r="58" spans="3:6">
-      <c r="F58" s="5"/>
-    </row>
-    <row r="59" spans="3:6">
-      <c r="F59" s="5"/>
-    </row>
-    <row r="60" spans="3:6">
-      <c r="F60" s="5"/>
-    </row>
-    <row r="61" spans="3:6">
-      <c r="F61" s="5"/>
-    </row>
-    <row r="62" spans="3:6">
-      <c r="F62" s="5"/>
-    </row>
-    <row r="63" spans="3:6">
-      <c r="F63" s="5"/>
-    </row>
-    <row r="64" spans="3:6">
-      <c r="F64" s="5"/>
-    </row>
-    <row r="65" spans="6:6">
-      <c r="F65" s="5"/>
-    </row>
-    <row r="66" spans="6:6">
-      <c r="F66" s="5"/>
-    </row>
-    <row r="67" spans="6:6">
-      <c r="F67" s="5"/>
-    </row>
-    <row r="68" spans="6:6">
-      <c r="F68" s="5"/>
-    </row>
-    <row r="69" spans="6:6">
-      <c r="F69" s="5"/>
-    </row>
-    <row r="70" spans="6:6">
-      <c r="F70" s="5"/>
-    </row>
-    <row r="71" spans="6:6">
-      <c r="F71" s="5"/>
-    </row>
-    <row r="72" spans="6:6">
-      <c r="F72" s="5"/>
-    </row>
-    <row r="73" spans="6:6">
-      <c r="F73" s="5"/>
-    </row>
-    <row r="74" spans="6:6">
-      <c r="F74" s="5"/>
-    </row>
-    <row r="75" spans="6:6">
-      <c r="F75" s="5"/>
-    </row>
-    <row r="76" spans="6:6">
-      <c r="F76" s="5"/>
-    </row>
-    <row r="77" spans="6:6">
-      <c r="F77" s="5"/>
-    </row>
-    <row r="78" spans="6:6">
-      <c r="F78" s="5"/>
-    </row>
-    <row r="79" spans="6:6">
-      <c r="F79" s="5"/>
-    </row>
-    <row r="80" spans="6:6">
-      <c r="F80" s="5"/>
-    </row>
-    <row r="81" spans="6:6">
-      <c r="F81" s="5"/>
-    </row>
-    <row r="82" spans="6:6">
-      <c r="F82" s="5"/>
-    </row>
-    <row r="83" spans="6:6">
-      <c r="F83" s="5"/>
-    </row>
-    <row r="84" spans="6:6">
-      <c r="F84" s="5"/>
-    </row>
-    <row r="85" spans="6:6">
-      <c r="F85" s="5"/>
-    </row>
-    <row r="86" spans="6:6">
-      <c r="F86" s="5"/>
-    </row>
-    <row r="87" spans="6:6">
-      <c r="F87" s="5"/>
-    </row>
-    <row r="88" spans="6:6">
-      <c r="F88" s="5"/>
-    </row>
-    <row r="89" spans="6:6">
-      <c r="F89" s="5"/>
-    </row>
-    <row r="90" spans="6:6">
-      <c r="F90" s="5"/>
-    </row>
-    <row r="91" spans="6:6">
-      <c r="F91" s="5"/>
-    </row>
-    <row r="92" spans="6:6">
-      <c r="F92" s="5"/>
-    </row>
-    <row r="93" spans="6:6">
-      <c r="F93" s="5"/>
-    </row>
-    <row r="94" spans="6:6">
-      <c r="F94" s="5"/>
-    </row>
-    <row r="95" spans="6:6">
-      <c r="F95" s="5"/>
-    </row>
-    <row r="96" spans="6:6">
-      <c r="F96" s="5"/>
-    </row>
-    <row r="97" spans="6:6">
-      <c r="F97" s="5"/>
-    </row>
-    <row r="98" spans="6:6">
-      <c r="F98" s="5"/>
-    </row>
-    <row r="99" spans="6:6">
-      <c r="F99" s="5"/>
-    </row>
-    <row r="100" spans="6:6">
-      <c r="F100" s="5"/>
-    </row>
-    <row r="101" spans="6:6">
-      <c r="F101" s="5"/>
-    </row>
-    <row r="102" spans="6:6">
-      <c r="F102" s="5"/>
-    </row>
-    <row r="103" spans="6:6">
-      <c r="F103" s="5"/>
-    </row>
-    <row r="104" spans="6:6">
-      <c r="F104" s="5"/>
-    </row>
-    <row r="105" spans="6:6">
-      <c r="F105" s="5"/>
-    </row>
-    <row r="106" spans="6:6">
-      <c r="F106" s="5"/>
-    </row>
-    <row r="107" spans="6:6">
-      <c r="F107" s="5"/>
-    </row>
-    <row r="108" spans="6:6">
-      <c r="F108" s="5"/>
-    </row>
-    <row r="109" spans="6:6">
-      <c r="F109" s="5"/>
-    </row>
-    <row r="110" spans="6:6">
-      <c r="F110" s="5"/>
-    </row>
-    <row r="111" spans="6:6">
-      <c r="F111" s="5"/>
-    </row>
-    <row r="112" spans="6:6">
-      <c r="F112" s="5"/>
-    </row>
-    <row r="113" spans="6:6">
-      <c r="F113" s="5"/>
-    </row>
-    <row r="114" spans="6:6">
-      <c r="F114" s="5"/>
-    </row>
-    <row r="115" spans="6:6">
-      <c r="F115" s="5"/>
-    </row>
-    <row r="116" spans="6:6">
-      <c r="F116" s="5"/>
-    </row>
-    <row r="117" spans="6:6">
-      <c r="F117" s="5"/>
-    </row>
-    <row r="118" spans="6:6">
-      <c r="F118" s="5"/>
-    </row>
-    <row r="119" spans="6:6">
-      <c r="F119" s="5"/>
-    </row>
-    <row r="120" spans="6:6">
-      <c r="F120" s="5"/>
-    </row>
-    <row r="121" spans="6:6">
-      <c r="F121" s="5"/>
-    </row>
-    <row r="122" spans="6:6">
-      <c r="F122" s="5"/>
-    </row>
-    <row r="123" spans="6:6">
-      <c r="F123" s="5"/>
-    </row>
-    <row r="124" spans="6:6">
-      <c r="F124" s="5"/>
+    <row r="37" spans="1:12" s="5" customFormat="1">
+      <c r="A37" s="12">
+        <f>IF(A36+$B$8&gt;b,NA(),A36+$B$8)</f>
+        <v>-8.1400000000000077</v>
+      </c>
+      <c r="B37" s="9">
+        <f>(Лист1!$A37-a)*$B$4</f>
+        <v>0.26999999999999957</v>
+      </c>
+      <c r="D37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37">
+        <v>-1.2</v>
+      </c>
+      <c r="K37" s="13">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="L37" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="5" customFormat="1">
+      <c r="A38" s="12">
+        <f>IF(A37+$B$8&gt;b,NA(),A37+$B$8)</f>
+        <v>-7.960000000000008</v>
+      </c>
+      <c r="B38" s="9">
+        <f>(Лист1!$A38-a)*$B$4</f>
+        <v>0.27999999999999953</v>
+      </c>
+      <c r="D38" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="K38" s="13">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="L38" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="5" customFormat="1" ht="14">
+      <c r="A39" s="12">
+        <f>IF(A38+$B$8&gt;b,NA(),A38+$B$8)</f>
+        <v>-7.7800000000000082</v>
+      </c>
+      <c r="B39" s="9">
+        <f>(Лист1!$A39-a)*$B$4</f>
+        <v>0.28999999999999954</v>
+      </c>
+      <c r="K39" s="13">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L39" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="5" customFormat="1" ht="14">
+      <c r="A40" s="12">
+        <f>IF(A39+$B$8&gt;b,NA(),A39+$B$8)</f>
+        <v>-7.6000000000000085</v>
+      </c>
+      <c r="B40" s="9">
+        <f>(Лист1!$A40-a)*$B$4</f>
+        <v>0.29999999999999949</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="5" customFormat="1" ht="14">
+      <c r="A41" s="12">
+        <f>IF(A40+$B$8&gt;b,NA(),A40+$B$8)</f>
+        <v>-7.4200000000000088</v>
+      </c>
+      <c r="B41" s="9">
+        <f>(Лист1!$A41-a)*$B$4</f>
+        <v>0.3099999999999995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="5" customFormat="1" ht="14">
+      <c r="A42" s="12">
+        <f>IF(A41+$B$8&gt;b,NA(),A41+$B$8)</f>
+        <v>-7.2400000000000091</v>
+      </c>
+      <c r="B42" s="9">
+        <f>(Лист1!$A42-a)*$B$4</f>
+        <v>0.31999999999999945</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="5" customFormat="1" ht="14">
+      <c r="A43" s="12">
+        <f>IF(A42+$B$8&gt;b,NA(),A42+$B$8)</f>
+        <v>-7.0600000000000094</v>
+      </c>
+      <c r="B43" s="9">
+        <f>(Лист1!$A43-a)*$B$4</f>
+        <v>0.32999999999999946</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" s="5" customFormat="1" ht="14">
+      <c r="A44" s="12">
+        <f>IF(A43+$B$8&gt;b,NA(),A43+$B$8)</f>
+        <v>-6.8800000000000097</v>
+      </c>
+      <c r="B44" s="9">
+        <f>(Лист1!$A44-a)*$B$4</f>
+        <v>0.33999999999999947</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" s="5" customFormat="1" ht="14">
+      <c r="A45" s="12">
+        <f>IF(A44+$B$8&gt;b,NA(),A44+$B$8)</f>
+        <v>-6.7000000000000099</v>
+      </c>
+      <c r="B45" s="9">
+        <f>(Лист1!$A45-a)*$B$4</f>
+        <v>0.34999999999999942</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" s="5" customFormat="1" ht="14">
+      <c r="A46" s="12">
+        <f>IF(A45+$B$8&gt;b,NA(),A45+$B$8)</f>
+        <v>-6.5200000000000102</v>
+      </c>
+      <c r="B46" s="9">
+        <f>(Лист1!$A46-a)*$B$4</f>
+        <v>0.35999999999999943</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" s="5" customFormat="1" ht="14">
+      <c r="A47" s="12">
+        <f>IF(A46+$B$8&gt;b,NA(),A46+$B$8)</f>
+        <v>-6.3400000000000105</v>
+      </c>
+      <c r="B47" s="9">
+        <f>(Лист1!$A47-a)*$B$4</f>
+        <v>0.36999999999999938</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="12">
+        <f>IF(A47+$B$8&gt;b,NA(),A47+$B$8)</f>
+        <v>-6.1600000000000108</v>
+      </c>
+      <c r="B48" s="9">
+        <f>(Лист1!$A48-a)*$B$4</f>
+        <v>0.37999999999999939</v>
+      </c>
+      <c r="C48" s="5"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="12">
+        <f>IF(A48+$B$8&gt;b,NA(),A48+$B$8)</f>
+        <v>-5.9800000000000111</v>
+      </c>
+      <c r="B49" s="9">
+        <f>(Лист1!$A49-a)*$B$4</f>
+        <v>0.38999999999999935</v>
+      </c>
+      <c r="C49" s="5"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="12">
+        <f>IF(A49+$B$8&gt;b,NA(),A49+$B$8)</f>
+        <v>-5.8000000000000114</v>
+      </c>
+      <c r="B50" s="9">
+        <f>(Лист1!$A50-a)*$B$4</f>
+        <v>0.39999999999999936</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="12">
+        <f>IF(A50+$B$8&gt;b,NA(),A50+$B$8)</f>
+        <v>-5.6200000000000117</v>
+      </c>
+      <c r="B51" s="9">
+        <f>(Лист1!$A51-a)*$B$4</f>
+        <v>0.40999999999999931</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="12">
+        <f>IF(A51+$B$8&gt;b,NA(),A51+$B$8)</f>
+        <v>-5.4400000000000119</v>
+      </c>
+      <c r="B52" s="9">
+        <f>(Лист1!$A52-a)*$B$4</f>
+        <v>0.41999999999999932</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="12">
+        <f>IF(A52+$B$8&gt;b,NA(),A52+$B$8)</f>
+        <v>-5.2600000000000122</v>
+      </c>
+      <c r="B53" s="9">
+        <f>(Лист1!$A53-a)*$B$4</f>
+        <v>0.42999999999999927</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="12">
+        <f>IF(A53+$B$8&gt;b,NA(),A53+$B$8)</f>
+        <v>-5.0800000000000125</v>
+      </c>
+      <c r="B54" s="9">
+        <f>(Лист1!$A54-a)*$B$4</f>
+        <v>0.43999999999999928</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="12">
+        <f>IF(A54+$B$8&gt;b,NA(),A54+$B$8)</f>
+        <v>-4.9000000000000128</v>
+      </c>
+      <c r="B55" s="9">
+        <f>(Лист1!$A55-a)*$B$4</f>
+        <v>0.44999999999999929</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="12">
+        <f>IF(A55+$B$8&gt;b,NA(),A55+$B$8)</f>
+        <v>-4.7200000000000131</v>
+      </c>
+      <c r="B56" s="9">
+        <f>(Лист1!$A56-a)*$B$4</f>
+        <v>0.45999999999999924</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="12">
+        <f>IF(A56+$B$8&gt;b,NA(),A56+$B$8)</f>
+        <v>-4.5400000000000134</v>
+      </c>
+      <c r="B57" s="9">
+        <f>(Лист1!$A57-a)*$B$4</f>
+        <v>0.46999999999999925</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="12">
+        <f>IF(A57+$B$8&gt;b,NA(),A57+$B$8)</f>
+        <v>-4.3600000000000136</v>
+      </c>
+      <c r="B58" s="9">
+        <f>(Лист1!$A58-a)*$B$4</f>
+        <v>0.47999999999999921</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="12">
+        <f>IF(A58+$B$8&gt;b,NA(),A58+$B$8)</f>
+        <v>-4.1800000000000139</v>
+      </c>
+      <c r="B59" s="9">
+        <f>(Лист1!$A59-a)*$B$4</f>
+        <v>0.48999999999999921</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="12">
+        <f>IF(A59+$B$8&gt;b,NA(),A59+$B$8)</f>
+        <v>-4.0000000000000142</v>
+      </c>
+      <c r="B60" s="9">
+        <f>(Лист1!$A60-a)*$B$4</f>
+        <v>0.49999999999999917</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="12">
+        <f>IF(A60+$B$8&gt;b,NA(),A60+$B$8)</f>
+        <v>-3.8200000000000141</v>
+      </c>
+      <c r="B61" s="9">
+        <f>(Лист1!$A61-a)*$B$4</f>
+        <v>0.50999999999999912</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="12">
+        <f>IF(A61+$B$8&gt;b,NA(),A61+$B$8)</f>
+        <v>-3.6400000000000139</v>
+      </c>
+      <c r="B62" s="9">
+        <f>(Лист1!$A62-a)*$B$4</f>
+        <v>0.51999999999999913</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="12">
+        <f>IF(A62+$B$8&gt;b,NA(),A62+$B$8)</f>
+        <v>-3.4600000000000137</v>
+      </c>
+      <c r="B63" s="9">
+        <f>(Лист1!$A63-a)*$B$4</f>
+        <v>0.52999999999999925</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="12">
+        <f>IF(A63+$B$8&gt;b,NA(),A63+$B$8)</f>
+        <v>-3.2800000000000136</v>
+      </c>
+      <c r="B64" s="9">
+        <f>(Лист1!$A64-a)*$B$4</f>
+        <v>0.53999999999999926</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="12">
+        <f>IF(A64+$B$8&gt;b,NA(),A64+$B$8)</f>
+        <v>-3.1000000000000134</v>
+      </c>
+      <c r="B65" s="9">
+        <f>(Лист1!$A65-a)*$B$4</f>
+        <v>0.54999999999999916</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="12">
+        <f>IF(A65+$B$8&gt;b,NA(),A65+$B$8)</f>
+        <v>-2.9200000000000133</v>
+      </c>
+      <c r="B66" s="9">
+        <f>(Лист1!$A66-a)*$B$4</f>
+        <v>0.55999999999999928</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="12">
+        <f>IF(A66+$B$8&gt;b,NA(),A66+$B$8)</f>
+        <v>-2.7400000000000131</v>
+      </c>
+      <c r="B67" s="9">
+        <f>(Лист1!$A67-a)*$B$4</f>
+        <v>0.56999999999999929</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="12">
+        <f>IF(A67+$B$8&gt;b,NA(),A67+$B$8)</f>
+        <v>-2.5600000000000129</v>
+      </c>
+      <c r="B68" s="9">
+        <f>(Лист1!$A68-a)*$B$4</f>
+        <v>0.57999999999999929</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="12">
+        <f>IF(A68+$B$8&gt;b,NA(),A68+$B$8)</f>
+        <v>-2.3800000000000128</v>
+      </c>
+      <c r="B69" s="9">
+        <f>(Лист1!$A69-a)*$B$4</f>
+        <v>0.58999999999999919</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="12">
+        <f>IF(A69+$B$8&gt;b,NA(),A69+$B$8)</f>
+        <v>-2.2000000000000126</v>
+      </c>
+      <c r="B70" s="9">
+        <f>(Лист1!$A70-a)*$B$4</f>
+        <v>0.5999999999999992</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="12">
+        <f>IF(A70+$B$8&gt;b,NA(),A70+$B$8)</f>
+        <v>-2.0200000000000125</v>
+      </c>
+      <c r="B71" s="9">
+        <f>(Лист1!$A71-a)*$B$4</f>
+        <v>0.60999999999999932</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="12">
+        <f>IF(A71+$B$8&gt;b,NA(),A71+$B$8)</f>
+        <v>-1.8400000000000125</v>
+      </c>
+      <c r="B72" s="9">
+        <f>(Лист1!$A72-a)*$B$4</f>
+        <v>0.61999999999999933</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="12">
+        <f>IF(A72+$B$8&gt;b,NA(),A72+$B$8)</f>
+        <v>-1.6600000000000126</v>
+      </c>
+      <c r="B73" s="9">
+        <f>(Лист1!$A73-a)*$B$4</f>
+        <v>0.62999999999999923</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="12">
+        <f>IF(A73+$B$8&gt;b,NA(),A73+$B$8)</f>
+        <v>-1.4800000000000126</v>
+      </c>
+      <c r="B74" s="9">
+        <f>(Лист1!$A74-a)*$B$4</f>
+        <v>0.63999999999999924</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="12">
+        <f>IF(A74+$B$8&gt;b,NA(),A74+$B$8)</f>
+        <v>-1.3000000000000127</v>
+      </c>
+      <c r="B75" s="9">
+        <f>(Лист1!$A75-a)*$B$4</f>
+        <v>0.64999999999999925</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="12">
+        <f>IF(A75+$B$8&gt;b,NA(),A75+$B$8)</f>
+        <v>-1.1200000000000128</v>
+      </c>
+      <c r="B76" s="9">
+        <f>(Лист1!$A76-a)*$B$4</f>
+        <v>0.65999999999999925</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="12">
+        <f>IF(A76+$B$8&gt;b,NA(),A76+$B$8)</f>
+        <v>-0.94000000000001283</v>
+      </c>
+      <c r="B77" s="9">
+        <f>(Лист1!$A77-a)*$B$4</f>
+        <v>0.66999999999999926</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="12">
+        <f>IF(A77+$B$8&gt;b,NA(),A77+$B$8)</f>
+        <v>-0.76000000000001289</v>
+      </c>
+      <c r="B78" s="9">
+        <f>(Лист1!$A78-a)*$B$4</f>
+        <v>0.67999999999999927</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="12">
+        <f>IF(A78+$B$8&gt;b,NA(),A78+$B$8)</f>
+        <v>-0.58000000000001295</v>
+      </c>
+      <c r="B79" s="9">
+        <f>(Лист1!$A79-a)*$B$4</f>
+        <v>0.68999999999999928</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="12">
+        <f>IF(A79+$B$8&gt;b,NA(),A79+$B$8)</f>
+        <v>-0.40000000000001296</v>
+      </c>
+      <c r="B80" s="9">
+        <f>(Лист1!$A80-a)*$B$4</f>
+        <v>0.69999999999999929</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="12">
+        <f>IF(A80+$B$8&gt;b,NA(),A80+$B$8)</f>
+        <v>-0.22000000000001296</v>
+      </c>
+      <c r="B81" s="9">
+        <f>(Лист1!$A81-a)*$B$4</f>
+        <v>0.70999999999999919</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="12">
+        <f>IF(A81+$B$8&gt;b,NA(),A81+$B$8)</f>
+        <v>-4.000000000001297E-2</v>
+      </c>
+      <c r="B82" s="9">
+        <f>(Лист1!$A82-a)*$B$4</f>
+        <v>0.7199999999999992</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="12">
+        <f>IF(A82+$B$8&gt;b,NA(),A82+$B$8)</f>
+        <v>0.13999999999998702</v>
+      </c>
+      <c r="B83" s="9">
+        <f>(Лист1!$A83-a)*$B$4</f>
+        <v>0.72999999999999921</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="12">
+        <f>IF(A83+$B$8&gt;b,NA(),A83+$B$8)</f>
+        <v>0.31999999999998702</v>
+      </c>
+      <c r="B84" s="9">
+        <f>(Лист1!$A84-a)*$B$4</f>
+        <v>0.73999999999999932</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="12">
+        <f>IF(A84+$B$8&gt;b,NA(),A84+$B$8)</f>
+        <v>0.49999999999998701</v>
+      </c>
+      <c r="B85" s="9">
+        <f>(Лист1!$A85-a)*$B$4</f>
+        <v>0.74999999999999922</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="12">
+        <f>IF(A85+$B$8&gt;b,NA(),A85+$B$8)</f>
+        <v>0.67999999999998706</v>
+      </c>
+      <c r="B86" s="9">
+        <f>(Лист1!$A86-a)*$B$4</f>
+        <v>0.75999999999999923</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="12">
+        <f>IF(A86+$B$8&gt;b,NA(),A86+$B$8)</f>
+        <v>0.859999999999987</v>
+      </c>
+      <c r="B87" s="9">
+        <f>(Лист1!$A87-a)*$B$4</f>
+        <v>0.76999999999999924</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="12">
+        <f>IF(A87+$B$8&gt;b,NA(),A87+$B$8)</f>
+        <v>1.0399999999999869</v>
+      </c>
+      <c r="B88" s="9">
+        <f>(Лист1!$A88-a)*$B$4</f>
+        <v>0.77999999999999925</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="12">
+        <f>IF(A88+$B$8&gt;b,NA(),A88+$B$8)</f>
+        <v>1.2199999999999869</v>
+      </c>
+      <c r="B89" s="9">
+        <f>(Лист1!$A89-a)*$B$4</f>
+        <v>0.78999999999999915</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="12">
+        <f>IF(A89+$B$8&gt;b,NA(),A89+$B$8)</f>
+        <v>1.3999999999999868</v>
+      </c>
+      <c r="B90" s="9">
+        <f>(Лист1!$A90-a)*$B$4</f>
+        <v>0.79999999999999916</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="12">
+        <f>IF(A90+$B$8&gt;b,NA(),A90+$B$8)</f>
+        <v>1.5799999999999867</v>
+      </c>
+      <c r="B91" s="9">
+        <f>(Лист1!$A91-a)*$B$4</f>
+        <v>0.80999999999999928</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="12">
+        <f>IF(A91+$B$8&gt;b,NA(),A91+$B$8)</f>
+        <v>1.7599999999999867</v>
+      </c>
+      <c r="B92" s="9">
+        <f>(Лист1!$A92-a)*$B$4</f>
+        <v>0.81999999999999929</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="12">
+        <f>IF(A92+$B$8&gt;b,NA(),A92+$B$8)</f>
+        <v>1.9399999999999866</v>
+      </c>
+      <c r="B93" s="9">
+        <f>(Лист1!$A93-a)*$B$4</f>
+        <v>0.82999999999999918</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="12">
+        <f>IF(A93+$B$8&gt;b,NA(),A93+$B$8)</f>
+        <v>2.1199999999999868</v>
+      </c>
+      <c r="B94" s="9">
+        <f>(Лист1!$A94-a)*$B$4</f>
+        <v>0.83999999999999919</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="12">
+        <f>IF(A94+$B$8&gt;b,NA(),A94+$B$8)</f>
+        <v>2.2999999999999869</v>
+      </c>
+      <c r="B95" s="9">
+        <f>(Лист1!$A95-a)*$B$4</f>
+        <v>0.8499999999999992</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="12">
+        <f>IF(A95+$B$8&gt;b,NA(),A95+$B$8)</f>
+        <v>2.4799999999999871</v>
+      </c>
+      <c r="B96" s="9">
+        <f>(Лист1!$A96-a)*$B$4</f>
+        <v>0.85999999999999921</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="12">
+        <f>IF(A96+$B$8&gt;b,NA(),A96+$B$8)</f>
+        <v>2.6599999999999873</v>
+      </c>
+      <c r="B97" s="9">
+        <f>(Лист1!$A97-a)*$B$4</f>
+        <v>0.86999999999999922</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="12">
+        <f>IF(A97+$B$8&gt;b,NA(),A97+$B$8)</f>
+        <v>2.8399999999999874</v>
+      </c>
+      <c r="B98" s="9">
+        <f>(Лист1!$A98-a)*$B$4</f>
+        <v>0.87999999999999923</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="12">
+        <f>IF(A98+$B$8&gt;b,NA(),A98+$B$8)</f>
+        <v>3.0199999999999876</v>
+      </c>
+      <c r="B99" s="9">
+        <f>(Лист1!$A99-a)*$B$4</f>
+        <v>0.88999999999999935</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="12">
+        <f>IF(A99+$B$8&gt;b,NA(),A99+$B$8)</f>
+        <v>3.1999999999999877</v>
+      </c>
+      <c r="B100" s="9">
+        <f>(Лист1!$A100-a)*$B$4</f>
+        <v>0.89999999999999936</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="12">
+        <f>IF(A100+$B$8&gt;b,NA(),A100+$B$8)</f>
+        <v>3.3799999999999879</v>
+      </c>
+      <c r="B101" s="9">
+        <f>(Лист1!$A101-a)*$B$4</f>
+        <v>0.90999999999999925</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="12">
+        <f>IF(A101+$B$8&gt;b,NA(),A101+$B$8)</f>
+        <v>3.5599999999999881</v>
+      </c>
+      <c r="B102" s="9">
+        <f>(Лист1!$A102-a)*$B$4</f>
+        <v>0.91999999999999926</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="12">
+        <f>IF(A102+$B$8&gt;b,NA(),A102+$B$8)</f>
+        <v>3.7399999999999882</v>
+      </c>
+      <c r="B103" s="9">
+        <f>(Лист1!$A103-a)*$B$4</f>
+        <v>0.92999999999999927</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="12">
+        <f>IF(A103+$B$8&gt;b,NA(),A103+$B$8)</f>
+        <v>3.9199999999999884</v>
+      </c>
+      <c r="B104" s="9">
+        <f>(Лист1!$A104-a)*$B$4</f>
+        <v>0.93999999999999928</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="12">
+        <f>IF(A104+$B$8&gt;b,NA(),A104+$B$8)</f>
+        <v>4.0999999999999881</v>
+      </c>
+      <c r="B105" s="9">
+        <f>(Лист1!$A105-a)*$B$4</f>
+        <v>0.94999999999999929</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="12">
+        <f>IF(A105+$B$8&gt;b,NA(),A105+$B$8)</f>
+        <v>4.2799999999999878</v>
+      </c>
+      <c r="B106" s="9">
+        <f>(Лист1!$A106-a)*$B$4</f>
+        <v>0.95999999999999919</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="12">
+        <f>IF(A106+$B$8&gt;b,NA(),A106+$B$8)</f>
+        <v>4.4599999999999875</v>
+      </c>
+      <c r="B107" s="9">
+        <f>(Лист1!$A107-a)*$B$4</f>
+        <v>0.9699999999999992</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="12">
+        <f>IF(A107+$B$8&gt;b,NA(),A107+$B$8)</f>
+        <v>4.6399999999999872</v>
+      </c>
+      <c r="B108" s="9">
+        <f>(Лист1!$A108-a)*$B$4</f>
+        <v>0.97999999999999921</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="12">
+        <f>IF(A108+$B$8&gt;b,NA(),A108+$B$8)</f>
+        <v>4.819999999999987</v>
+      </c>
+      <c r="B109" s="9">
+        <f>(Лист1!$A109-a)*$B$4</f>
+        <v>0.98999999999999921</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="12">
+        <f>IF(A109+$B$8&gt;b,NA(),A109+$B$8)</f>
+        <v>4.9999999999999867</v>
+      </c>
+      <c r="B110" s="9">
+        <f>(Лист1!$A110-a)*$B$4</f>
+        <v>0.99999999999999911</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
